--- a/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
+++ b/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
@@ -5,33 +5,27 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Desktop\eps-1.2.0-rc1_Poland\InputData\dist-heat\BFoHfC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Poland\Models\eps-1.2.4-us\InputData\dist-heat\BFoHfC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="50" windowWidth="23960" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BFoHfC" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>BFoHfC BAU Fraction of Heat from CHP</t>
   </si>
   <si>
     <t>Source:</t>
-  </si>
-  <si>
-    <t>Fraction of Heat from CHP</t>
-  </si>
-  <si>
-    <t>District heating</t>
   </si>
   <si>
     <t>Energy Regulatory Office of Poland</t>
@@ -41,6 +35,24 @@
   </si>
   <si>
     <t>"Energetyka cieplna w liczbach - 2015" - zaproszenie do lektury raportu</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>petroleum diesel</t>
+  </si>
+  <si>
+    <t>heat</t>
   </si>
 </sst>
 </file>
@@ -107,7 +119,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -116,6 +128,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -432,40 +448,40 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.7265625" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
@@ -479,30 +495,809 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:AK19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G31" sqref="A13:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="7">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="7">
+        <v>2019</v>
+      </c>
+      <c r="G1">
+        <v>2020</v>
+      </c>
+      <c r="H1" s="7">
+        <v>2021</v>
+      </c>
+      <c r="I1">
+        <v>2022</v>
+      </c>
+      <c r="J1" s="7">
+        <v>2023</v>
+      </c>
+      <c r="K1">
+        <v>2024</v>
+      </c>
+      <c r="L1" s="7">
+        <v>2025</v>
+      </c>
+      <c r="M1">
+        <v>2026</v>
+      </c>
+      <c r="N1" s="7">
+        <v>2027</v>
+      </c>
+      <c r="O1">
+        <v>2028</v>
+      </c>
+      <c r="P1" s="7">
+        <v>2029</v>
+      </c>
+      <c r="Q1">
+        <v>2030</v>
+      </c>
+      <c r="R1" s="7">
+        <v>2031</v>
+      </c>
+      <c r="S1">
+        <v>2032</v>
+      </c>
+      <c r="T1" s="7">
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1" s="7">
+        <v>2035</v>
+      </c>
+      <c r="W1">
+        <v>2036</v>
+      </c>
+      <c r="X1" s="7">
+        <v>2037</v>
+      </c>
+      <c r="Y1">
+        <v>2038</v>
+      </c>
+      <c r="Z1" s="7">
+        <v>2039</v>
+      </c>
+      <c r="AA1">
+        <v>2040</v>
+      </c>
+      <c r="AB1" s="7">
+        <v>2041</v>
+      </c>
+      <c r="AC1">
+        <v>2042</v>
+      </c>
+      <c r="AD1" s="7">
+        <v>2043</v>
+      </c>
+      <c r="AE1">
+        <v>2044</v>
+      </c>
+      <c r="AF1" s="7">
+        <v>2045</v>
+      </c>
+      <c r="AG1">
+        <v>2046</v>
+      </c>
+      <c r="AH1" s="7">
+        <v>2047</v>
+      </c>
+      <c r="AI1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1" s="7">
+        <v>2049</v>
+      </c>
+      <c r="AK1">
+        <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.63</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.63</v>
+      </c>
+      <c r="C2">
+        <v>0.63</v>
+      </c>
+      <c r="D2">
+        <v>0.63</v>
+      </c>
+      <c r="E2">
+        <v>0.63</v>
+      </c>
+      <c r="F2">
+        <v>0.63</v>
+      </c>
+      <c r="G2">
+        <v>0.63</v>
+      </c>
+      <c r="H2">
+        <v>0.63</v>
+      </c>
+      <c r="I2">
+        <v>0.63</v>
+      </c>
+      <c r="J2">
+        <v>0.63</v>
+      </c>
+      <c r="K2">
+        <v>0.63</v>
+      </c>
+      <c r="L2">
+        <v>0.63</v>
+      </c>
+      <c r="M2">
+        <v>0.63</v>
+      </c>
+      <c r="N2">
+        <v>0.63</v>
+      </c>
+      <c r="O2">
+        <v>0.63</v>
+      </c>
+      <c r="P2">
+        <v>0.63</v>
+      </c>
+      <c r="Q2">
+        <v>0.63</v>
+      </c>
+      <c r="R2">
+        <v>0.63</v>
+      </c>
+      <c r="S2">
+        <v>0.63</v>
+      </c>
+      <c r="T2">
+        <v>0.63</v>
+      </c>
+      <c r="U2">
+        <v>0.63</v>
+      </c>
+      <c r="V2">
+        <v>0.63</v>
+      </c>
+      <c r="W2">
+        <v>0.63</v>
+      </c>
+      <c r="X2">
+        <v>0.63</v>
+      </c>
+      <c r="Y2">
+        <v>0.63</v>
+      </c>
+      <c r="Z2">
+        <v>0.63</v>
+      </c>
+      <c r="AA2">
+        <v>0.63</v>
+      </c>
+      <c r="AB2">
+        <v>0.63</v>
+      </c>
+      <c r="AC2">
+        <v>0.63</v>
+      </c>
+      <c r="AD2">
+        <v>0.63</v>
+      </c>
+      <c r="AE2">
+        <v>0.63</v>
+      </c>
+      <c r="AF2">
+        <v>0.63</v>
+      </c>
+      <c r="AG2">
+        <v>0.63</v>
+      </c>
+      <c r="AH2">
+        <v>0.63</v>
+      </c>
+      <c r="AI2">
+        <v>0.63</v>
+      </c>
+      <c r="AJ2">
+        <v>0.63</v>
+      </c>
+      <c r="AK2">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.63</v>
+      </c>
+      <c r="C3">
+        <v>0.63</v>
+      </c>
+      <c r="D3">
+        <v>0.63</v>
+      </c>
+      <c r="E3">
+        <v>0.63</v>
+      </c>
+      <c r="F3">
+        <v>0.63</v>
+      </c>
+      <c r="G3">
+        <v>0.63</v>
+      </c>
+      <c r="H3">
+        <v>0.63</v>
+      </c>
+      <c r="I3">
+        <v>0.63</v>
+      </c>
+      <c r="J3">
+        <v>0.63</v>
+      </c>
+      <c r="K3">
+        <v>0.63</v>
+      </c>
+      <c r="L3">
+        <v>0.63</v>
+      </c>
+      <c r="M3">
+        <v>0.63</v>
+      </c>
+      <c r="N3">
+        <v>0.63</v>
+      </c>
+      <c r="O3">
+        <v>0.63</v>
+      </c>
+      <c r="P3">
+        <v>0.63</v>
+      </c>
+      <c r="Q3">
+        <v>0.63</v>
+      </c>
+      <c r="R3">
+        <v>0.63</v>
+      </c>
+      <c r="S3">
+        <v>0.63</v>
+      </c>
+      <c r="T3">
+        <v>0.63</v>
+      </c>
+      <c r="U3">
+        <v>0.63</v>
+      </c>
+      <c r="V3">
+        <v>0.63</v>
+      </c>
+      <c r="W3">
+        <v>0.63</v>
+      </c>
+      <c r="X3">
+        <v>0.63</v>
+      </c>
+      <c r="Y3">
+        <v>0.63</v>
+      </c>
+      <c r="Z3">
+        <v>0.63</v>
+      </c>
+      <c r="AA3">
+        <v>0.63</v>
+      </c>
+      <c r="AB3">
+        <v>0.63</v>
+      </c>
+      <c r="AC3">
+        <v>0.63</v>
+      </c>
+      <c r="AD3">
+        <v>0.63</v>
+      </c>
+      <c r="AE3">
+        <v>0.63</v>
+      </c>
+      <c r="AF3">
+        <v>0.63</v>
+      </c>
+      <c r="AG3">
+        <v>0.63</v>
+      </c>
+      <c r="AH3">
+        <v>0.63</v>
+      </c>
+      <c r="AI3">
+        <v>0.63</v>
+      </c>
+      <c r="AJ3">
+        <v>0.63</v>
+      </c>
+      <c r="AK3">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.63</v>
+      </c>
+      <c r="C4">
+        <v>0.63</v>
+      </c>
+      <c r="D4">
+        <v>0.63</v>
+      </c>
+      <c r="E4">
+        <v>0.63</v>
+      </c>
+      <c r="F4">
+        <v>0.63</v>
+      </c>
+      <c r="G4">
+        <v>0.63</v>
+      </c>
+      <c r="H4">
+        <v>0.63</v>
+      </c>
+      <c r="I4">
+        <v>0.63</v>
+      </c>
+      <c r="J4">
+        <v>0.63</v>
+      </c>
+      <c r="K4">
+        <v>0.63</v>
+      </c>
+      <c r="L4">
+        <v>0.63</v>
+      </c>
+      <c r="M4">
+        <v>0.63</v>
+      </c>
+      <c r="N4">
+        <v>0.63</v>
+      </c>
+      <c r="O4">
+        <v>0.63</v>
+      </c>
+      <c r="P4">
+        <v>0.63</v>
+      </c>
+      <c r="Q4">
+        <v>0.63</v>
+      </c>
+      <c r="R4">
+        <v>0.63</v>
+      </c>
+      <c r="S4">
+        <v>0.63</v>
+      </c>
+      <c r="T4">
+        <v>0.63</v>
+      </c>
+      <c r="U4">
+        <v>0.63</v>
+      </c>
+      <c r="V4">
+        <v>0.63</v>
+      </c>
+      <c r="W4">
+        <v>0.63</v>
+      </c>
+      <c r="X4">
+        <v>0.63</v>
+      </c>
+      <c r="Y4">
+        <v>0.63</v>
+      </c>
+      <c r="Z4">
+        <v>0.63</v>
+      </c>
+      <c r="AA4">
+        <v>0.63</v>
+      </c>
+      <c r="AB4">
+        <v>0.63</v>
+      </c>
+      <c r="AC4">
+        <v>0.63</v>
+      </c>
+      <c r="AD4">
+        <v>0.63</v>
+      </c>
+      <c r="AE4">
+        <v>0.63</v>
+      </c>
+      <c r="AF4">
+        <v>0.63</v>
+      </c>
+      <c r="AG4">
+        <v>0.63</v>
+      </c>
+      <c r="AH4">
+        <v>0.63</v>
+      </c>
+      <c r="AI4">
+        <v>0.63</v>
+      </c>
+      <c r="AJ4">
+        <v>0.63</v>
+      </c>
+      <c r="AK4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.63</v>
+      </c>
+      <c r="C5">
+        <v>0.63</v>
+      </c>
+      <c r="D5">
+        <v>0.63</v>
+      </c>
+      <c r="E5">
+        <v>0.63</v>
+      </c>
+      <c r="F5">
+        <v>0.63</v>
+      </c>
+      <c r="G5">
+        <v>0.63</v>
+      </c>
+      <c r="H5">
+        <v>0.63</v>
+      </c>
+      <c r="I5">
+        <v>0.63</v>
+      </c>
+      <c r="J5">
+        <v>0.63</v>
+      </c>
+      <c r="K5">
+        <v>0.63</v>
+      </c>
+      <c r="L5">
+        <v>0.63</v>
+      </c>
+      <c r="M5">
+        <v>0.63</v>
+      </c>
+      <c r="N5">
+        <v>0.63</v>
+      </c>
+      <c r="O5">
+        <v>0.63</v>
+      </c>
+      <c r="P5">
+        <v>0.63</v>
+      </c>
+      <c r="Q5">
+        <v>0.63</v>
+      </c>
+      <c r="R5">
+        <v>0.63</v>
+      </c>
+      <c r="S5">
+        <v>0.63</v>
+      </c>
+      <c r="T5">
+        <v>0.63</v>
+      </c>
+      <c r="U5">
+        <v>0.63</v>
+      </c>
+      <c r="V5">
+        <v>0.63</v>
+      </c>
+      <c r="W5">
+        <v>0.63</v>
+      </c>
+      <c r="X5">
+        <v>0.63</v>
+      </c>
+      <c r="Y5">
+        <v>0.63</v>
+      </c>
+      <c r="Z5">
+        <v>0.63</v>
+      </c>
+      <c r="AA5">
+        <v>0.63</v>
+      </c>
+      <c r="AB5">
+        <v>0.63</v>
+      </c>
+      <c r="AC5">
+        <v>0.63</v>
+      </c>
+      <c r="AD5">
+        <v>0.63</v>
+      </c>
+      <c r="AE5">
+        <v>0.63</v>
+      </c>
+      <c r="AF5">
+        <v>0.63</v>
+      </c>
+      <c r="AG5">
+        <v>0.63</v>
+      </c>
+      <c r="AH5">
+        <v>0.63</v>
+      </c>
+      <c r="AI5">
+        <v>0.63</v>
+      </c>
+      <c r="AJ5">
+        <v>0.63</v>
+      </c>
+      <c r="AK5">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.63</v>
+      </c>
+      <c r="C6">
+        <v>0.63</v>
+      </c>
+      <c r="D6">
+        <v>0.63</v>
+      </c>
+      <c r="E6">
+        <v>0.63</v>
+      </c>
+      <c r="F6">
+        <v>0.63</v>
+      </c>
+      <c r="G6">
+        <v>0.63</v>
+      </c>
+      <c r="H6">
+        <v>0.63</v>
+      </c>
+      <c r="I6">
+        <v>0.63</v>
+      </c>
+      <c r="J6">
+        <v>0.63</v>
+      </c>
+      <c r="K6">
+        <v>0.63</v>
+      </c>
+      <c r="L6">
+        <v>0.63</v>
+      </c>
+      <c r="M6">
+        <v>0.63</v>
+      </c>
+      <c r="N6">
+        <v>0.63</v>
+      </c>
+      <c r="O6">
+        <v>0.63</v>
+      </c>
+      <c r="P6">
+        <v>0.63</v>
+      </c>
+      <c r="Q6">
+        <v>0.63</v>
+      </c>
+      <c r="R6">
+        <v>0.63</v>
+      </c>
+      <c r="S6">
+        <v>0.63</v>
+      </c>
+      <c r="T6">
+        <v>0.63</v>
+      </c>
+      <c r="U6">
+        <v>0.63</v>
+      </c>
+      <c r="V6">
+        <v>0.63</v>
+      </c>
+      <c r="W6">
+        <v>0.63</v>
+      </c>
+      <c r="X6">
+        <v>0.63</v>
+      </c>
+      <c r="Y6">
+        <v>0.63</v>
+      </c>
+      <c r="Z6">
+        <v>0.63</v>
+      </c>
+      <c r="AA6">
+        <v>0.63</v>
+      </c>
+      <c r="AB6">
+        <v>0.63</v>
+      </c>
+      <c r="AC6">
+        <v>0.63</v>
+      </c>
+      <c r="AD6">
+        <v>0.63</v>
+      </c>
+      <c r="AE6">
+        <v>0.63</v>
+      </c>
+      <c r="AF6">
+        <v>0.63</v>
+      </c>
+      <c r="AG6">
+        <v>0.63</v>
+      </c>
+      <c r="AH6">
+        <v>0.63</v>
+      </c>
+      <c r="AI6">
+        <v>0.63</v>
+      </c>
+      <c r="AJ6">
+        <v>0.63</v>
+      </c>
+      <c r="AK6">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.63</v>
+      </c>
+      <c r="C7">
+        <v>0.63</v>
+      </c>
+      <c r="D7">
+        <v>0.63</v>
+      </c>
+      <c r="E7">
+        <v>0.63</v>
+      </c>
+      <c r="F7">
+        <v>0.63</v>
+      </c>
+      <c r="G7">
+        <v>0.63</v>
+      </c>
+      <c r="H7">
+        <v>0.63</v>
+      </c>
+      <c r="I7">
+        <v>0.63</v>
+      </c>
+      <c r="J7">
+        <v>0.63</v>
+      </c>
+      <c r="K7">
+        <v>0.63</v>
+      </c>
+      <c r="L7">
+        <v>0.63</v>
+      </c>
+      <c r="M7">
+        <v>0.63</v>
+      </c>
+      <c r="N7">
+        <v>0.63</v>
+      </c>
+      <c r="O7">
+        <v>0.63</v>
+      </c>
+      <c r="P7">
+        <v>0.63</v>
+      </c>
+      <c r="Q7">
+        <v>0.63</v>
+      </c>
+      <c r="R7">
+        <v>0.63</v>
+      </c>
+      <c r="S7">
+        <v>0.63</v>
+      </c>
+      <c r="T7">
+        <v>0.63</v>
+      </c>
+      <c r="U7">
+        <v>0.63</v>
+      </c>
+      <c r="V7">
+        <v>0.63</v>
+      </c>
+      <c r="W7">
+        <v>0.63</v>
+      </c>
+      <c r="X7">
+        <v>0.63</v>
+      </c>
+      <c r="Y7">
+        <v>0.63</v>
+      </c>
+      <c r="Z7">
+        <v>0.63</v>
+      </c>
+      <c r="AA7">
+        <v>0.63</v>
+      </c>
+      <c r="AB7">
+        <v>0.63</v>
+      </c>
+      <c r="AC7">
+        <v>0.63</v>
+      </c>
+      <c r="AD7">
+        <v>0.63</v>
+      </c>
+      <c r="AE7">
+        <v>0.63</v>
+      </c>
+      <c r="AF7">
+        <v>0.63</v>
+      </c>
+      <c r="AG7">
+        <v>0.63</v>
+      </c>
+      <c r="AH7">
+        <v>0.63</v>
+      </c>
+      <c r="AI7">
+        <v>0.63</v>
+      </c>
+      <c r="AJ7">
+        <v>0.63</v>
+      </c>
+      <c r="AK7">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
